--- a/documentos/PETAPP_SBL_02.xlsx
+++ b/documentos/PETAPP_SBL_02.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="5460"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Task</t>
   </si>
@@ -39,18 +39,6 @@
     <t>Day 3</t>
   </si>
   <si>
-    <t>Day 4</t>
-  </si>
-  <si>
-    <t>Day 5</t>
-  </si>
-  <si>
-    <t>Day 6</t>
-  </si>
-  <si>
-    <t>Day 7</t>
-  </si>
-  <si>
     <t>Historia de Usuario HU01</t>
   </si>
   <si>
@@ -70,6 +58,12 @@
   </si>
   <si>
     <t>Desarrollo del logout por lado servidor</t>
+  </si>
+  <si>
+    <t>Nro Horas</t>
+  </si>
+  <si>
+    <t>Carlos Zarate Carpio</t>
   </si>
 </sst>
 </file>
@@ -205,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -232,6 +226,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,6 +243,249 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-PE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sprint </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-PE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SPRINT BACKLOG 1'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nro Horas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SPRINT BACKLOG 1'!$C$4:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT BACKLOG 1'!$C$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="43089920"/>
+        <c:axId val="46487168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="43089920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Nro Dias</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46487168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46487168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Nro</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-PE" baseline="0"/>
+                  <a:t> Horas</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43089920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I23"/>
+  <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,14 +787,21 @@
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -566,33 +815,27 @@
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1</v>
@@ -606,50 +849,36 @@
       <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E7" s="8">
-        <v>5</v>
-      </c>
-      <c r="F7" s="8">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
         <v>0</v>
       </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" s="8">
         <v>8</v>
@@ -660,20 +889,13 @@
       <c r="E8" s="8">
         <v>0</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="6" t="s">
         <v>5</v>
@@ -685,22 +907,15 @@
         <v>3</v>
       </c>
       <c r="E9" s="8">
-        <v>2</v>
-      </c>
-      <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="6" t="s">
         <v>4</v>
@@ -714,52 +929,75 @@
       <c r="E10" s="8">
         <v>0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8">
+        <f>SUM(C6:C10)</f>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" ref="D11:E11" si="0">SUM(D6:D10)</f>
+        <v>16</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="2"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -768,6 +1006,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/documentos/PETAPP_SBL_02.xlsx
+++ b/documentos/PETAPP_SBL_02.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="5460"/>
@@ -220,16 +220,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -362,11 +362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43089920"/>
-        <c:axId val="46487168"/>
+        <c:axId val="577635840"/>
+        <c:axId val="530436608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43089920"/>
+        <c:axId val="577635840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,7 +394,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46487168"/>
+        <c:crossAx val="530436608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -402,7 +402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46487168"/>
+        <c:axId val="530436608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -436,7 +436,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43089920"/>
+        <c:crossAx val="577635840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -793,11 +793,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -815,11 +815,11 @@
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -827,14 +827,14 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -849,14 +849,14 @@
       <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -869,14 +869,14 @@
       <c r="E7" s="8">
         <v>0</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -889,14 +889,14 @@
       <c r="E8" s="8">
         <v>0</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
@@ -909,14 +909,14 @@
       <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
@@ -929,14 +929,14 @@
       <c r="E10" s="8">
         <v>0</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -952,38 +952,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
